--- a/Graph and Dp/leetcode_graph.xlsx
+++ b/Graph and Dp/leetcode_graph.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DB498A21-4AD1-41CE-A98F-E639BD6BD26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F435B182-956B-4CD7-9A01-38036BDE3344}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Topological sort</t>
   </si>
@@ -108,26 +109,32 @@
     <t>https://leetcode.com/problems/min-cost-to-connect-all-points/description/</t>
   </si>
   <si>
+    <t>https://leetcode.com/problems/similar-string-groups/description/?envType=list&amp;envId=5lhmb4mj</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/satisfiability-of-equality-equations/description/?envType=list&amp;envId=5lhmb4mj</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-sub-islands/description/</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>r**</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/similar-string-groups/description/?envType=list&amp;envId=5lhmb4mj</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/satisfiability-of-equality-equations/description/?envType=list&amp;envId=5lhmb4mj</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-sub-islands/description/</t>
-  </si>
-  <si>
-    <t>r*</t>
+    <t>r***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,31 +159,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="3" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,14 +204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -239,6 +221,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +305,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,6 +357,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -601,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -609,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.5">
@@ -630,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -638,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -646,15 +665,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -662,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -670,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -678,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -686,15 +705,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.5">
@@ -707,7 +726,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -715,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -723,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -731,102 +750,108 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
+      <c r="A32" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A4" r:id="rId8"/>
-    <hyperlink ref="A13" r:id="rId9"/>
-    <hyperlink ref="A14" r:id="rId10"/>
-    <hyperlink ref="A15" r:id="rId11"/>
-    <hyperlink ref="A16" r:id="rId12"/>
-    <hyperlink ref="A17" r:id="rId13"/>
-    <hyperlink ref="A18" r:id="rId14"/>
-    <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A20" r:id="rId16"/>
-    <hyperlink ref="A21" r:id="rId17"/>
-    <hyperlink ref="A24" r:id="rId18"/>
-    <hyperlink ref="A25" r:id="rId19"/>
-    <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A27" r:id="rId21"/>
-    <hyperlink ref="A28" r:id="rId22"/>
-    <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A30" r:id="rId24"/>
-    <hyperlink ref="A31" r:id="rId25"/>
-    <hyperlink ref="A32" r:id="rId26"/>
-    <hyperlink ref="A35" r:id="rId27"/>
-    <hyperlink ref="A36" r:id="rId28"/>
-    <hyperlink ref="A9" r:id="rId29"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -838,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
